--- a/evaluation/results/hybrid/pca/one_svm/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8398576512455516</v>
+        <v>0.5071174377224199</v>
       </c>
       <c r="C2">
-        <v>0.015625</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="D2">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2">
-        <v>0.02173913043478261</v>
+        <v>0.1476923076923077</v>
       </c>
       <c r="F2">
-        <v>0.02840909090909091</v>
+        <v>0.293398533007335</v>
       </c>
       <c r="G2">
-        <v>0.03403141361256545</v>
+        <v>0.6258776328986961</v>
       </c>
       <c r="H2">
-        <v>0.4588683788121991</v>
+        <v>0.6858614232209738</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="K2">
-        <v>471</v>
+        <v>261</v>
       </c>
       <c r="L2">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9457831325301205</v>
+        <v>0.9849056603773585</v>
       </c>
       <c r="C2">
-        <v>0.8820224719101124</v>
+        <v>0.4887640449438202</v>
       </c>
       <c r="D2">
-        <v>0.9127906976744186</v>
+        <v>0.6533166458072591</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.015625</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3">
-        <v>0.02173913043478261</v>
+        <v>0.1476923076923077</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8398576512455516</v>
+        <v>0.5071174377224199</v>
       </c>
       <c r="C4">
-        <v>0.8398576512455516</v>
+        <v>0.5071174377224199</v>
       </c>
       <c r="D4">
-        <v>0.8398576512455516</v>
+        <v>0.5071174377224199</v>
       </c>
       <c r="E4">
-        <v>0.8398576512455516</v>
+        <v>0.5071174377224199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4807040662650602</v>
+        <v>0.5328568705927197</v>
       </c>
       <c r="C5">
-        <v>0.4588683788121991</v>
+        <v>0.6729534510433386</v>
       </c>
       <c r="D5">
-        <v>0.4672649140546006</v>
+        <v>0.4005044767497834</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.8994407344681217</v>
+        <v>0.939861652854334</v>
       </c>
       <c r="C6">
-        <v>0.8398576512455516</v>
+        <v>0.5071174377224199</v>
       </c>
       <c r="D6">
-        <v>0.8683966694133691</v>
+        <v>0.6281253976449483</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>471</v>
+        <v>261</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
